--- a/Assets/Resources/MasterData/ActionData.xlsx
+++ b/Assets/Resources/MasterData/ActionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム開発Ⅳ\UnityProject\2DRoguelikeSubject\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2DRoguelike_\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A92E8D-A20E-4F20-8CF2-01F230D06BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECF9BE-AA2E-48D0-9755-C688BB10D1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-15390" windowWidth="12465" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionData" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectType</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -50,6 +46,27 @@
     <rPh sb="2" eb="4">
       <t>コウゲキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満腹度50回復</t>
+    <rPh sb="0" eb="3">
+      <t>マンプクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを10回復</t>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>effectID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -405,15 +422,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -422,13 +441,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -436,13 +455,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
